--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H2">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.127317225489265</v>
+        <v>0.167255</v>
       </c>
       <c r="N2">
-        <v>0.127317225489265</v>
+        <v>0.501765</v>
       </c>
       <c r="O2">
-        <v>0.1028908665632954</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P2">
-        <v>0.1028908665632954</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q2">
-        <v>3.717577648425218</v>
+        <v>5.337168767095</v>
       </c>
       <c r="R2">
-        <v>3.717577648425218</v>
+        <v>48.034518903855</v>
       </c>
       <c r="S2">
-        <v>0.0585628536614866</v>
+        <v>0.06176638360265917</v>
       </c>
       <c r="T2">
-        <v>0.0585628536614866</v>
+        <v>0.06176638360265917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H3">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.405051463781167</v>
+        <v>0.429376</v>
       </c>
       <c r="N3">
-        <v>0.405051463781167</v>
+        <v>1.288128</v>
       </c>
       <c r="O3">
-        <v>0.3273405931602676</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="P3">
-        <v>0.3273405931602676</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="Q3">
-        <v>11.82723125192316</v>
+        <v>13.701546599744</v>
       </c>
       <c r="R3">
-        <v>11.82723125192316</v>
+        <v>123.313919397696</v>
       </c>
       <c r="S3">
-        <v>0.1863139061319515</v>
+        <v>0.1585662773954463</v>
       </c>
       <c r="T3">
-        <v>0.1863139061319515</v>
+        <v>0.1585662773954463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H4">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I4">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J4">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.705031963886116</v>
+        <v>0.02801</v>
       </c>
       <c r="N4">
-        <v>0.705031963886116</v>
+        <v>0.08402999999999999</v>
       </c>
       <c r="O4">
-        <v>0.569768540276437</v>
+        <v>0.01783505787001908</v>
       </c>
       <c r="P4">
-        <v>0.569768540276437</v>
+        <v>0.01783505787001909</v>
       </c>
       <c r="Q4">
-        <v>20.58646078954459</v>
+        <v>0.8938094356899998</v>
       </c>
       <c r="R4">
-        <v>20.58646078954459</v>
+        <v>8.044284921209998</v>
       </c>
       <c r="S4">
-        <v>0.3242977026012435</v>
+        <v>0.01034394430486672</v>
       </c>
       <c r="T4">
-        <v>0.3242977026012435</v>
+        <v>0.01034394430486672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1979107735191</v>
+        <v>31.910369</v>
       </c>
       <c r="H5">
-        <v>11.1979107735191</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I5">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J5">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.127317225489265</v>
+        <v>0.9458613333333332</v>
       </c>
       <c r="N5">
-        <v>0.127317225489265</v>
+        <v>2.837584</v>
       </c>
       <c r="O5">
-        <v>0.1028908665632954</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="P5">
-        <v>0.1028908665632954</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="Q5">
-        <v>1.425686930960801</v>
+        <v>30.18278416949866</v>
       </c>
       <c r="R5">
-        <v>1.425686930960801</v>
+        <v>271.645057525488</v>
       </c>
       <c r="S5">
-        <v>0.02245878983598878</v>
+        <v>0.3493015691584068</v>
       </c>
       <c r="T5">
-        <v>0.02245878983598878</v>
+        <v>0.3493015691584068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H6">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I6">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J6">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.405051463781167</v>
+        <v>0.167255</v>
       </c>
       <c r="N6">
-        <v>0.405051463781167</v>
+        <v>0.501765</v>
       </c>
       <c r="O6">
-        <v>0.3273405931602676</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P6">
-        <v>0.3273405931602676</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q6">
-        <v>4.535730150104811</v>
+        <v>1.910131880635</v>
       </c>
       <c r="R6">
-        <v>4.535730150104811</v>
+        <v>17.191186925715</v>
       </c>
       <c r="S6">
-        <v>0.07145117766164233</v>
+        <v>0.02210571627383394</v>
       </c>
       <c r="T6">
-        <v>0.07145117766164233</v>
+        <v>0.02210571627383394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H7">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J7">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.705031963886116</v>
+        <v>0.429376</v>
       </c>
       <c r="N7">
-        <v>0.705031963886116</v>
+        <v>1.288128</v>
       </c>
       <c r="O7">
-        <v>0.569768540276437</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="P7">
-        <v>0.569768540276437</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="Q7">
-        <v>7.894885024075667</v>
+        <v>4.903678732352</v>
       </c>
       <c r="R7">
-        <v>7.894885024075667</v>
+        <v>44.133108591168</v>
       </c>
       <c r="S7">
-        <v>0.1243678115331519</v>
+        <v>0.05674965789240215</v>
       </c>
       <c r="T7">
-        <v>0.1243678115331519</v>
+        <v>0.05674965789240215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H8">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J8">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.127317225489265</v>
+        <v>0.02801</v>
       </c>
       <c r="N8">
-        <v>0.127317225489265</v>
+        <v>0.08402999999999999</v>
       </c>
       <c r="O8">
-        <v>0.1028908665632954</v>
+        <v>0.01783505787001908</v>
       </c>
       <c r="P8">
-        <v>0.1028908665632954</v>
+        <v>0.01783505787001909</v>
       </c>
       <c r="Q8">
-        <v>0.0472469136385654</v>
+        <v>0.31988756077</v>
       </c>
       <c r="R8">
-        <v>0.0472469136385654</v>
+        <v>2.87898804693</v>
       </c>
       <c r="S8">
-        <v>0.0007442787618825602</v>
+        <v>0.003702018551493759</v>
       </c>
       <c r="T8">
-        <v>0.0007442787618825602</v>
+        <v>0.00370201855149376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H9">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J9">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.405051463781167</v>
+        <v>0.9458613333333332</v>
       </c>
       <c r="N9">
-        <v>0.405051463781167</v>
+        <v>2.837584</v>
       </c>
       <c r="O9">
-        <v>0.3273405931602676</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="P9">
-        <v>0.3273405931602676</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="Q9">
-        <v>0.1503129796844097</v>
+        <v>10.80218760252266</v>
       </c>
       <c r="R9">
-        <v>0.1503129796844097</v>
+        <v>97.219688422704</v>
       </c>
       <c r="S9">
-        <v>0.00236787442393005</v>
+        <v>0.1250123599835995</v>
       </c>
       <c r="T9">
-        <v>0.00236787442393005</v>
+        <v>0.1250123599835995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H10">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I10">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J10">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.705031963886116</v>
+        <v>0.167255</v>
       </c>
       <c r="N10">
-        <v>0.705031963886116</v>
+        <v>0.501765</v>
       </c>
       <c r="O10">
-        <v>0.569768540276437</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P10">
-        <v>0.569768540276437</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q10">
-        <v>0.2616345445963565</v>
+        <v>0.1143437692466667</v>
       </c>
       <c r="R10">
-        <v>0.2616345445963565</v>
+        <v>1.02909392322</v>
       </c>
       <c r="S10">
-        <v>0.004121518633101479</v>
+        <v>0.001323286075832243</v>
       </c>
       <c r="T10">
-        <v>0.004121518633101479</v>
+        <v>0.001323286075832243</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.387740711516154</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H11">
-        <v>0.387740711516154</v>
+        <v>2.050948</v>
       </c>
       <c r="I11">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J11">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.127317225489265</v>
+        <v>0.429376</v>
       </c>
       <c r="N11">
-        <v>0.127317225489265</v>
+        <v>1.288128</v>
       </c>
       <c r="O11">
-        <v>0.1028908665632954</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="P11">
-        <v>0.1028908665632954</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="Q11">
-        <v>0.04936607159947023</v>
+        <v>0.2935426161493333</v>
       </c>
       <c r="R11">
-        <v>0.04936607159947023</v>
+        <v>2.641883545344</v>
       </c>
       <c r="S11">
-        <v>0.0007776617734257395</v>
+        <v>0.003397131817264329</v>
       </c>
       <c r="T11">
-        <v>0.0007776617734257395</v>
+        <v>0.003397131817264329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387740711516154</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H12">
-        <v>0.387740711516154</v>
+        <v>2.050948</v>
       </c>
       <c r="I12">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J12">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.405051463781167</v>
+        <v>0.02801</v>
       </c>
       <c r="N12">
-        <v>0.405051463781167</v>
+        <v>0.08402999999999999</v>
       </c>
       <c r="O12">
-        <v>0.3273405931602676</v>
+        <v>0.01783505787001908</v>
       </c>
       <c r="P12">
-        <v>0.3273405931602676</v>
+        <v>0.01783505787001909</v>
       </c>
       <c r="Q12">
-        <v>0.1570549427671694</v>
+        <v>0.01914901782666666</v>
       </c>
       <c r="R12">
-        <v>0.1570549427671694</v>
+        <v>0.17234116044</v>
       </c>
       <c r="S12">
-        <v>0.002474080301720943</v>
+        <v>0.0002216091775077644</v>
       </c>
       <c r="T12">
-        <v>0.002474080301720943</v>
+        <v>0.0002216091775077644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387740711516154</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H13">
-        <v>0.387740711516154</v>
+        <v>2.050948</v>
       </c>
       <c r="I13">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J13">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.705031963886116</v>
+        <v>0.9458613333333332</v>
       </c>
       <c r="N13">
-        <v>0.705031963886116</v>
+        <v>2.837584</v>
       </c>
       <c r="O13">
-        <v>0.569768540276437</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="P13">
-        <v>0.569768540276437</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="Q13">
-        <v>0.273369595318834</v>
+        <v>0.646637469959111</v>
       </c>
       <c r="R13">
-        <v>0.273369595318834</v>
+        <v>5.819737229632</v>
       </c>
       <c r="S13">
-        <v>0.004306380422998912</v>
+        <v>0.007483454199085946</v>
       </c>
       <c r="T13">
-        <v>0.004306380422998912</v>
+        <v>0.007483454199085946</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.616499757877066</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H14">
-        <v>0.616499757877066</v>
+        <v>1.347404</v>
       </c>
       <c r="I14">
-        <v>0.01201725934811423</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J14">
-        <v>0.01201725934811423</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.127317225489265</v>
+        <v>0.167255</v>
       </c>
       <c r="N14">
-        <v>0.127317225489265</v>
+        <v>0.501765</v>
       </c>
       <c r="O14">
-        <v>0.1028908665632954</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P14">
-        <v>0.1028908665632954</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q14">
-        <v>0.07849103868771169</v>
+        <v>0.07512001867333334</v>
       </c>
       <c r="R14">
-        <v>0.07849103868771169</v>
+        <v>0.67608016806</v>
       </c>
       <c r="S14">
-        <v>0.001236466228043336</v>
+        <v>0.0008693545383503961</v>
       </c>
       <c r="T14">
-        <v>0.001236466228043336</v>
+        <v>0.0008693545383503961</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.616499757877066</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H15">
-        <v>0.616499757877066</v>
+        <v>1.347404</v>
       </c>
       <c r="I15">
-        <v>0.01201725934811423</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J15">
-        <v>0.01201725934811423</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.405051463781167</v>
+        <v>0.429376</v>
       </c>
       <c r="N15">
-        <v>0.405051463781167</v>
+        <v>1.288128</v>
       </c>
       <c r="O15">
-        <v>0.3273405931602676</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="P15">
-        <v>0.3273405931602676</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="Q15">
-        <v>0.2497141293488406</v>
+        <v>0.1928476466346667</v>
       </c>
       <c r="R15">
-        <v>0.2497141293488406</v>
+        <v>1.735628819712</v>
       </c>
       <c r="S15">
-        <v>0.003933736803172483</v>
+        <v>0.00223180158595402</v>
       </c>
       <c r="T15">
-        <v>0.003933736803172483</v>
+        <v>0.00223180158595402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.616499757877066</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H16">
-        <v>0.616499757877066</v>
+        <v>1.347404</v>
       </c>
       <c r="I16">
-        <v>0.01201725934811423</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J16">
-        <v>0.01201725934811423</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.705031963886116</v>
+        <v>0.02801</v>
       </c>
       <c r="N16">
-        <v>0.705031963886116</v>
+        <v>0.08402999999999999</v>
       </c>
       <c r="O16">
-        <v>0.569768540276437</v>
+        <v>0.01783505787001908</v>
       </c>
       <c r="P16">
-        <v>0.569768540276437</v>
+        <v>0.01783505787001909</v>
       </c>
       <c r="Q16">
-        <v>0.4346520350313829</v>
+        <v>0.01258026201333333</v>
       </c>
       <c r="R16">
-        <v>0.4346520350313829</v>
+        <v>0.11322235812</v>
       </c>
       <c r="S16">
-        <v>0.00684705631689841</v>
+        <v>0.000145589791750289</v>
       </c>
       <c r="T16">
-        <v>0.00684705631689841</v>
+        <v>0.000145589791750289</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.52861740667934</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H17">
-        <v>9.52861740667934</v>
+        <v>1.347404</v>
       </c>
       <c r="I17">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J17">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.127317225489265</v>
+        <v>0.9458613333333332</v>
       </c>
       <c r="N17">
-        <v>0.127317225489265</v>
+        <v>2.837584</v>
       </c>
       <c r="O17">
-        <v>0.1028908665632954</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="P17">
-        <v>0.1028908665632954</v>
+        <v>0.6022667481975512</v>
       </c>
       <c r="Q17">
-        <v>1.213157130967129</v>
+        <v>0.4248191146595555</v>
       </c>
       <c r="R17">
-        <v>1.213157130967129</v>
+        <v>3.823372031936</v>
       </c>
       <c r="S17">
-        <v>0.01911081630246843</v>
+        <v>0.004916378241508415</v>
       </c>
       <c r="T17">
-        <v>0.01911081630246843</v>
+        <v>0.004916378241508415</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.52861740667934</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H18">
-        <v>9.52861740667934</v>
+        <v>1.970496</v>
       </c>
       <c r="I18">
-        <v>0.1857387049093616</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J18">
-        <v>0.1857387049093616</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.405051463781167</v>
+        <v>0.167255</v>
       </c>
       <c r="N18">
-        <v>0.405051463781167</v>
+        <v>0.501765</v>
       </c>
       <c r="O18">
-        <v>0.3273405931602676</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P18">
-        <v>0.3273405931602676</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q18">
-        <v>3.859580428386174</v>
+        <v>0.10985843616</v>
       </c>
       <c r="R18">
-        <v>3.859580428386174</v>
+        <v>0.9887259254400002</v>
       </c>
       <c r="S18">
-        <v>0.06079981783785034</v>
+        <v>0.00127137787953821</v>
       </c>
       <c r="T18">
-        <v>0.06079981783785034</v>
+        <v>0.00127137787953821</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.970496</v>
+      </c>
+      <c r="I19">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J19">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.429376</v>
+      </c>
+      <c r="N19">
+        <v>1.288128</v>
+      </c>
+      <c r="O19">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="P19">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="Q19">
+        <v>0.282027896832</v>
+      </c>
+      <c r="R19">
+        <v>2.538251071488</v>
+      </c>
+      <c r="S19">
+        <v>0.003263873417264646</v>
+      </c>
+      <c r="T19">
+        <v>0.003263873417264646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.970496</v>
+      </c>
+      <c r="I20">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J20">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02801</v>
+      </c>
+      <c r="N20">
+        <v>0.08402999999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01783505787001908</v>
+      </c>
+      <c r="P20">
+        <v>0.01783505787001909</v>
+      </c>
+      <c r="Q20">
+        <v>0.01839786432</v>
+      </c>
+      <c r="R20">
+        <v>0.16558077888</v>
+      </c>
+      <c r="S20">
+        <v>0.0002129161723468073</v>
+      </c>
+      <c r="T20">
+        <v>0.0002129161723468074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.970496</v>
+      </c>
+      <c r="I21">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J21">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N21">
+        <v>2.837584</v>
+      </c>
+      <c r="O21">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P21">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q21">
+        <v>0.621271991296</v>
+      </c>
+      <c r="R21">
+        <v>5.591447921664</v>
+      </c>
+      <c r="S21">
+        <v>0.007189902701327417</v>
+      </c>
+      <c r="T21">
+        <v>0.007189902701327417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>9.52861740667934</v>
-      </c>
-      <c r="H19">
-        <v>9.52861740667934</v>
-      </c>
-      <c r="I19">
-        <v>0.1857387049093616</v>
-      </c>
-      <c r="J19">
-        <v>0.1857387049093616</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.705031963886116</v>
-      </c>
-      <c r="N19">
-        <v>0.705031963886116</v>
-      </c>
-      <c r="O19">
-        <v>0.569768540276437</v>
-      </c>
-      <c r="P19">
-        <v>0.569768540276437</v>
-      </c>
-      <c r="Q19">
-        <v>6.717979843350564</v>
-      </c>
-      <c r="R19">
-        <v>6.717979843350564</v>
-      </c>
-      <c r="S19">
-        <v>0.1058280707690428</v>
-      </c>
-      <c r="T19">
-        <v>0.1058280707690428</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.899486</v>
+      </c>
+      <c r="H22">
+        <v>29.698458</v>
+      </c>
+      <c r="I22">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J22">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.167255</v>
+      </c>
+      <c r="N22">
+        <v>0.501765</v>
+      </c>
+      <c r="O22">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="P22">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="Q22">
+        <v>1.65573853093</v>
+      </c>
+      <c r="R22">
+        <v>14.90164677837</v>
+      </c>
+      <c r="S22">
+        <v>0.01916165399858441</v>
+      </c>
+      <c r="T22">
+        <v>0.01916165399858441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.899486</v>
+      </c>
+      <c r="H23">
+        <v>29.698458</v>
+      </c>
+      <c r="I23">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J23">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.429376</v>
+      </c>
+      <c r="N23">
+        <v>1.288128</v>
+      </c>
+      <c r="O23">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="P23">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="Q23">
+        <v>4.250601700736</v>
+      </c>
+      <c r="R23">
+        <v>38.25541530662399</v>
+      </c>
+      <c r="S23">
+        <v>0.04919167945529986</v>
+      </c>
+      <c r="T23">
+        <v>0.04919167945529986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.899486</v>
+      </c>
+      <c r="H24">
+        <v>29.698458</v>
+      </c>
+      <c r="I24">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J24">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02801</v>
+      </c>
+      <c r="N24">
+        <v>0.08402999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.01783505787001908</v>
+      </c>
+      <c r="P24">
+        <v>0.01783505787001909</v>
+      </c>
+      <c r="Q24">
+        <v>0.27728460286</v>
+      </c>
+      <c r="R24">
+        <v>2.49556142574</v>
+      </c>
+      <c r="S24">
+        <v>0.003208979872053745</v>
+      </c>
+      <c r="T24">
+        <v>0.003208979872053746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.899486</v>
+      </c>
+      <c r="H25">
+        <v>29.698458</v>
+      </c>
+      <c r="I25">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J25">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N25">
+        <v>2.837584</v>
+      </c>
+      <c r="O25">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P25">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q25">
+        <v>9.363541027274666</v>
+      </c>
+      <c r="R25">
+        <v>84.27186924547199</v>
+      </c>
+      <c r="S25">
+        <v>0.1083630839136232</v>
+      </c>
+      <c r="T25">
+        <v>0.1083630839136232</v>
       </c>
     </row>
   </sheetData>
